--- a/OpsAndMats/8034919.xlsx
+++ b/OpsAndMats/8034919.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD54711A-53AC-4DDC-9E2F-AD8C76527EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Materials!$I$1:$I$58</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="195">
   <si>
     <t>Item</t>
   </si>
@@ -323,7 +332,7 @@
     <t>Washer, Split Lock, Med, ¼, Pl. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, ¼-20, Pl. Stl.</t>
+    <t>Hex Nut, full, ¼-20, Pl. Stl.</t>
   </si>
   <si>
     <t>Legend plate-"Drive Pressure"</t>
@@ -605,8 +614,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +678,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -715,7 +732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,9 +764,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,6 +816,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,14 +1009,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1177,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1260,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1426,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1592,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1758,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1841,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1924,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2090,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2173,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2190,10 +2245,10 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2256,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2273,10 +2328,10 @@
         <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2339,9 +2394,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -2356,16 +2411,16 @@
         <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2422,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2439,16 +2494,16 @@
         <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2505,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2522,16 +2577,16 @@
         <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2588,9 +2643,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -2605,16 +2660,16 @@
         <v>61</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2671,9 +2726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -2688,16 +2743,16 @@
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2754,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2771,16 +2826,16 @@
         <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2837,9 +2892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -2854,16 +2909,16 @@
         <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2920,9 +2975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -2937,16 +2992,16 @@
         <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3003,9 +3058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -3020,16 +3075,16 @@
         <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3086,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3103,16 +3158,16 @@
         <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3169,12 +3224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -3186,16 +3241,16 @@
         <v>61</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3252,12 +3307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -3269,16 +3324,16 @@
         <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3335,12 +3390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -3352,16 +3407,16 @@
         <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3418,12 +3473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -3435,16 +3490,16 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3501,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3518,16 +3573,16 @@
         <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3584,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -3601,16 +3656,16 @@
         <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3667,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3684,16 +3739,16 @@
         <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3750,9 +3805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
@@ -3767,16 +3822,16 @@
         <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3833,9 +3888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
@@ -3850,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3916,9 +3971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
@@ -3933,16 +3988,16 @@
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3999,9 +4054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -4016,16 +4071,16 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4082,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4099,16 +4154,16 @@
         <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4165,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4182,16 +4237,16 @@
         <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4248,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4265,16 +4320,16 @@
         <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4331,9 +4386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -4348,16 +4403,16 @@
         <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4414,9 +4469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
@@ -4431,16 +4486,16 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4497,9 +4552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
@@ -4514,16 +4569,16 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4580,9 +4635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
@@ -4597,16 +4652,16 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4663,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4680,16 +4735,16 @@
         <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4746,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4763,16 +4818,16 @@
         <v>61</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4829,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -4846,16 +4901,16 @@
         <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4912,9 +4967,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
@@ -4929,16 +4984,16 @@
         <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4995,9 +5050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
@@ -5012,16 +5067,16 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5078,9 +5133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -5095,16 +5150,16 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5161,9 +5216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -5178,16 +5233,16 @@
         <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5244,27 +5299,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5279,13 +5334,13 @@
         <v>8</v>
       </c>
       <c r="S52">
-        <v>9.375</v>
+        <v>1</v>
       </c>
       <c r="T52" t="s">
         <v>132</v>
       </c>
       <c r="U52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5327,33 +5382,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5362,13 +5417,13 @@
         <v>8</v>
       </c>
       <c r="S53">
-        <v>11.125</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s">
         <v>132</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5410,33 +5465,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5445,68 +5500,401 @@
         <v>8</v>
       </c>
       <c r="S54">
-        <v>0.0313</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s">
         <v>132</v>
       </c>
       <c r="U54" t="s">
+        <v>133</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>8</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>132</v>
+      </c>
+      <c r="U55" t="s">
+        <v>133</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>8</v>
+      </c>
+      <c r="S56">
+        <v>9.375</v>
+      </c>
+      <c r="T56" t="s">
+        <v>132</v>
+      </c>
+      <c r="U56" t="s">
+        <v>134</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57">
+        <v>11.125</v>
+      </c>
+      <c r="T57" t="s">
+        <v>132</v>
+      </c>
+      <c r="U57" t="s">
+        <v>134</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="T58" t="s">
+        <v>132</v>
+      </c>
+      <c r="U58" t="s">
         <v>135</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I58" xr:uid="{E0C3B2E2-ADB1-426E-8ECD-F87FF483D450}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5655,7 +6043,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5765,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -5875,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5985,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6095,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6205,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6315,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -6425,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -6535,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -6645,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -6755,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -6865,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -6975,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -7085,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -7195,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -7305,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -7415,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -7525,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
